--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H2">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I2">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J2">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N2">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O2">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P2">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q2">
-        <v>21.167046439131</v>
+        <v>71.3972515081195</v>
       </c>
       <c r="R2">
-        <v>84.668185756524</v>
+        <v>285.589006032478</v>
       </c>
       <c r="S2">
-        <v>0.0007798836539320238</v>
+        <v>0.001967989479618979</v>
       </c>
       <c r="T2">
-        <v>0.000400267684669057</v>
+        <v>0.001010067662488068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H3">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I3">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J3">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P3">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q3">
-        <v>34.7947035536255</v>
+        <v>26.2290784572535</v>
       </c>
       <c r="R3">
-        <v>208.768221321753</v>
+        <v>157.374470743521</v>
       </c>
       <c r="S3">
-        <v>0.001281984268467314</v>
+        <v>0.0007229767165211604</v>
       </c>
       <c r="T3">
-        <v>0.0009869488974434118</v>
+        <v>0.0005566000806807243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H4">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I4">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J4">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N4">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O4">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P4">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q4">
-        <v>299.9925364420894</v>
+        <v>214.9278963873687</v>
       </c>
       <c r="R4">
-        <v>1799.955218652536</v>
+        <v>1289.567378324212</v>
       </c>
       <c r="S4">
-        <v>0.01105299580390572</v>
+        <v>0.005924259408205337</v>
       </c>
       <c r="T4">
-        <v>0.008509263561520479</v>
+        <v>0.004560925945786138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H5">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I5">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J5">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N5">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O5">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P5">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q5">
-        <v>355.0830392342858</v>
+        <v>339.061694050998</v>
       </c>
       <c r="R5">
-        <v>1420.332156937143</v>
+        <v>1356.246776203992</v>
       </c>
       <c r="S5">
-        <v>0.01308276328885363</v>
+        <v>0.009345875824901598</v>
       </c>
       <c r="T5">
-        <v>0.006714600753972478</v>
+        <v>0.004796756815076961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H6">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I6">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J6">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N6">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O6">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P6">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q6">
-        <v>66.47167510719666</v>
+        <v>222.4082736875263</v>
       </c>
       <c r="R6">
-        <v>398.83005064318</v>
+        <v>1334.449642125158</v>
       </c>
       <c r="S6">
-        <v>0.002449098083412678</v>
+        <v>0.006130448071204735</v>
       </c>
       <c r="T6">
-        <v>0.001885463583765141</v>
+        <v>0.004719664980997594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H7">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I7">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J7">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N7">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O7">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P7">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q7">
-        <v>275.6023134784405</v>
+        <v>268.8793760344563</v>
       </c>
       <c r="R7">
-        <v>1653.613880870643</v>
+        <v>1613.276256206738</v>
       </c>
       <c r="S7">
-        <v>0.01015435667350997</v>
+        <v>0.007411374697836218</v>
       </c>
       <c r="T7">
-        <v>0.007817436898152803</v>
+        <v>0.005705815499315572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J8">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N8">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O8">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P8">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q8">
-        <v>13.962095727976</v>
+        <v>62.47437942206267</v>
       </c>
       <c r="R8">
-        <v>83.77257436785601</v>
+        <v>374.846276532376</v>
       </c>
       <c r="S8">
-        <v>0.0005144227497301062</v>
+        <v>0.001722039978448774</v>
       </c>
       <c r="T8">
-        <v>0.0003960336941364589</v>
+        <v>0.001325751672269748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J9">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P9">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q9">
         <v>22.95109916441467</v>
@@ -1013,10 +1013,10 @@
         <v>206.559892479732</v>
       </c>
       <c r="S9">
-        <v>0.0008456157135371584</v>
+        <v>0.0006326226955126339</v>
       </c>
       <c r="T9">
-        <v>0.0009765090531892135</v>
+        <v>0.0007305584716277997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J10">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N10">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O10">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P10">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q10">
-        <v>197.8794974314205</v>
+        <v>188.0672807939004</v>
       </c>
       <c r="R10">
-        <v>1780.915476882784</v>
+        <v>1692.605527145104</v>
       </c>
       <c r="S10">
-        <v>0.007290718898303902</v>
+        <v>0.005183875040635902</v>
       </c>
       <c r="T10">
-        <v>0.008419253443944667</v>
+        <v>0.005986386283102976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J11">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N11">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O11">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P11">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q11">
-        <v>234.218004832482</v>
+        <v>296.687456088144</v>
       </c>
       <c r="R11">
-        <v>1405.308028994892</v>
+        <v>1780.124736528864</v>
       </c>
       <c r="S11">
-        <v>0.008629583440027807</v>
+        <v>0.008177874917915925</v>
       </c>
       <c r="T11">
-        <v>0.006643574395584338</v>
+        <v>0.006295923139836898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J12">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N12">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O12">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P12">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q12">
-        <v>43.84569636176889</v>
+        <v>194.6127978803262</v>
       </c>
       <c r="R12">
-        <v>394.61126725592</v>
+        <v>1751.515180922936</v>
       </c>
       <c r="S12">
-        <v>0.001615461183313499</v>
+        <v>0.005364295273805344</v>
       </c>
       <c r="T12">
-        <v>0.001865519343275628</v>
+        <v>0.006194737217601446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J13">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N13">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O13">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P13">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q13">
-        <v>181.7913469743214</v>
+        <v>235.2761738346995</v>
       </c>
       <c r="R13">
-        <v>1636.122122768892</v>
+        <v>2117.485564512296</v>
       </c>
       <c r="S13">
-        <v>0.006697963286434714</v>
+        <v>0.006485138084888869</v>
       </c>
       <c r="T13">
-        <v>0.007734744852095353</v>
+        <v>0.007489096741545895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H14">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I14">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J14">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N14">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O14">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P14">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q14">
-        <v>220.531721051928</v>
+        <v>673.8870456403193</v>
       </c>
       <c r="R14">
-        <v>1323.190326311568</v>
+        <v>4043.322273841916</v>
       </c>
       <c r="S14">
-        <v>0.008125322770773697</v>
+        <v>0.01857498136494574</v>
       </c>
       <c r="T14">
-        <v>0.006255364084595558</v>
+        <v>0.01430037218365821</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H15">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I15">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J15">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.465949</v>
       </c>
       <c r="O15">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P15">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q15">
-        <v>362.513300107244</v>
+        <v>247.5646585557513</v>
       </c>
       <c r="R15">
-        <v>3262.619700965196</v>
+        <v>2228.081927001762</v>
       </c>
       <c r="S15">
-        <v>0.01335652557382496</v>
+        <v>0.00682385712715814</v>
       </c>
       <c r="T15">
-        <v>0.01542398980198255</v>
+        <v>0.00788025258781371</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H16">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I16">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J16">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N16">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O16">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P16">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q16">
-        <v>3125.512600662262</v>
+        <v>2028.609254036918</v>
       </c>
       <c r="R16">
-        <v>28129.61340596035</v>
+        <v>18257.48328633226</v>
       </c>
       <c r="S16">
-        <v>0.1151571238067893</v>
+        <v>0.0559164615706299</v>
       </c>
       <c r="T16">
-        <v>0.1329823608246128</v>
+        <v>0.0645728409581824</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H17">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I17">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J17">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N17">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O17">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P17">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q17">
-        <v>3699.480415648446</v>
+        <v>3200.253209576904</v>
       </c>
       <c r="R17">
-        <v>22196.88249389068</v>
+        <v>19201.51925746143</v>
       </c>
       <c r="S17">
-        <v>0.1363045294251417</v>
+        <v>0.08821158399701125</v>
       </c>
       <c r="T17">
-        <v>0.1049354569643196</v>
+        <v>0.06791169569881149</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H18">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I18">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J18">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N18">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O18">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P18">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q18">
-        <v>692.5440899253066</v>
+        <v>2099.213223413875</v>
       </c>
       <c r="R18">
-        <v>6232.89680932776</v>
+        <v>18892.91901072488</v>
       </c>
       <c r="S18">
-        <v>0.0255162578734414</v>
+        <v>0.05786258507003925</v>
       </c>
       <c r="T18">
-        <v>0.02946593401475524</v>
+        <v>0.06682024216495598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H19">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I19">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J19">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N19">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O19">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P19">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q19">
-        <v>2871.399781356964</v>
+        <v>2537.833383248181</v>
       </c>
       <c r="R19">
-        <v>25842.59803221268</v>
+        <v>22840.50044923363</v>
       </c>
       <c r="S19">
-        <v>0.1057945311276134</v>
+        <v>0.06995268436475154</v>
       </c>
       <c r="T19">
-        <v>0.1221705270729727</v>
+        <v>0.08078199934696172</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H20">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I20">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J20">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N20">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O20">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P20">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q20">
-        <v>6.608559931584</v>
+        <v>39.389746972657</v>
       </c>
       <c r="R20">
-        <v>26.434239726336</v>
+        <v>157.558987890628</v>
       </c>
       <c r="S20">
-        <v>0.0002434873415851061</v>
+        <v>0.001085736579624874</v>
       </c>
       <c r="T20">
-        <v>0.0001249675050517074</v>
+        <v>0.0005572526786432878</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H21">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I21">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J21">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.465949</v>
       </c>
       <c r="O21">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P21">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q21">
-        <v>10.863248417632</v>
+        <v>14.470539718741</v>
       </c>
       <c r="R21">
-        <v>65.179490505792</v>
+        <v>86.82323831244601</v>
       </c>
       <c r="S21">
-        <v>0.0004002480881721889</v>
+        <v>0.0003988650729454522</v>
       </c>
       <c r="T21">
-        <v>0.0003081351456813503</v>
+        <v>0.0003070753548612569</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H22">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I22">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J22">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N22">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O22">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P22">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q22">
-        <v>93.66061825425068</v>
+        <v>118.5753691807187</v>
       </c>
       <c r="R22">
-        <v>561.963709525504</v>
+        <v>711.452215084312</v>
       </c>
       <c r="S22">
-        <v>0.003450853920678421</v>
+        <v>0.003268404233502646</v>
       </c>
       <c r="T22">
-        <v>0.002656675714378063</v>
+        <v>0.00251625539037888</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H23">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I23">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J23">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N23">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O23">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P23">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q23">
-        <v>110.860414664688</v>
+        <v>187.059782480148</v>
       </c>
       <c r="R23">
-        <v>443.441658658752</v>
+        <v>748.2391299205921</v>
       </c>
       <c r="S23">
-        <v>0.004084567278374888</v>
+        <v>0.005156104418653722</v>
       </c>
       <c r="T23">
-        <v>0.002096364347614101</v>
+        <v>0.002646362895548751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H24">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I24">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J24">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N24">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O24">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P24">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q24">
-        <v>20.75311026325333</v>
+        <v>122.7022811120513</v>
       </c>
       <c r="R24">
-        <v>124.51866157952</v>
+        <v>736.213686672308</v>
       </c>
       <c r="S24">
-        <v>0.0007646324917887153</v>
+        <v>0.003382158181905731</v>
       </c>
       <c r="T24">
-        <v>0.0005886602615042322</v>
+        <v>0.002603831456678181</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H25">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I25">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J25">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N25">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O25">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P25">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q25">
-        <v>86.04575093379201</v>
+        <v>148.3403123292313</v>
       </c>
       <c r="R25">
-        <v>516.274505602752</v>
+        <v>890.0418739753879</v>
       </c>
       <c r="S25">
-        <v>0.003170289952192571</v>
+        <v>0.004088843308402727</v>
       </c>
       <c r="T25">
-        <v>0.002440680630686038</v>
+        <v>0.003147889085970566</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H26">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I26">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J26">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N26">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O26">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P26">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q26">
-        <v>14.738023106728</v>
+        <v>343.4488824657447</v>
       </c>
       <c r="R26">
-        <v>88.428138640368</v>
+        <v>2060.693294794468</v>
       </c>
       <c r="S26">
-        <v>0.0005430112011735874</v>
+        <v>0.009466804018395796</v>
       </c>
       <c r="T26">
-        <v>0.0004180428102588364</v>
+        <v>0.007288234544789081</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H27">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I27">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J27">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.465949</v>
       </c>
       <c r="O27">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P27">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q27">
-        <v>24.22658004931067</v>
+        <v>126.1721914214807</v>
       </c>
       <c r="R27">
-        <v>218.039220443796</v>
+        <v>1135.549722793326</v>
       </c>
       <c r="S27">
-        <v>0.0008926098322439715</v>
+        <v>0.003477802577732394</v>
       </c>
       <c r="T27">
-        <v>0.001030777418392475</v>
+        <v>0.004016198207610241</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H28">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I28">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J28">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N28">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O28">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P28">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q28">
-        <v>208.8764224448392</v>
+        <v>1033.887779511519</v>
       </c>
       <c r="R28">
-        <v>1879.887802003552</v>
+        <v>9304.990015603671</v>
       </c>
       <c r="S28">
-        <v>0.007695892198515811</v>
+        <v>0.02849801960449286</v>
       </c>
       <c r="T28">
-        <v>0.00888714375089329</v>
+        <v>0.03290977354172649</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H29">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I29">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J29">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N29">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O29">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P29">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q29">
-        <v>247.234400514546</v>
+        <v>1631.020206646392</v>
       </c>
       <c r="R29">
-        <v>1483.406403087276</v>
+        <v>9786.121239878352</v>
       </c>
       <c r="S29">
-        <v>0.009109162594103205</v>
+        <v>0.04495734135313378</v>
       </c>
       <c r="T29">
-        <v>0.007012783385892339</v>
+        <v>0.03461143250193829</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H30">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I30">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J30">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N30">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O30">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P30">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q30">
-        <v>46.28237040486223</v>
+        <v>1069.871338680728</v>
       </c>
       <c r="R30">
-        <v>416.54133364376</v>
+        <v>9628.842048126548</v>
       </c>
       <c r="S30">
-        <v>0.001705238576755405</v>
+        <v>0.02948986823155375</v>
       </c>
       <c r="T30">
-        <v>0.001969193430765132</v>
+        <v>0.03405516940281644</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H31">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I31">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J31">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N31">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O31">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P31">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q31">
-        <v>191.8941915676974</v>
+        <v>1293.415632485781</v>
       </c>
       <c r="R31">
-        <v>1727.047724109276</v>
+        <v>11640.74069237203</v>
       </c>
       <c r="S31">
-        <v>0.00707019487666847</v>
+        <v>0.03565162949188978</v>
       </c>
       <c r="T31">
-        <v>0.008164594382948835</v>
+        <v>0.04117082763135778</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H32">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I32">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J32">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N32">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O32">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P32">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q32">
-        <v>268.519778047038</v>
+        <v>1075.771716076972</v>
       </c>
       <c r="R32">
-        <v>1611.118668282228</v>
+        <v>6454.630296461833</v>
       </c>
       <c r="S32">
-        <v>0.009893406066762396</v>
+        <v>0.02965250587370823</v>
       </c>
       <c r="T32">
-        <v>0.007616541364602603</v>
+        <v>0.02282865655910591</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H33">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I33">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J33">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.465949</v>
       </c>
       <c r="O33">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P33">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q33">
-        <v>441.3967769333991</v>
+        <v>395.2042991440402</v>
       </c>
       <c r="R33">
-        <v>3972.570992400591</v>
+        <v>3556.838692296362</v>
       </c>
       <c r="S33">
-        <v>0.01626292700866632</v>
+        <v>0.01089338716249063</v>
       </c>
       <c r="T33">
-        <v>0.01878027477622101</v>
+        <v>0.01257978307248402</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H34">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I34">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J34">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N34">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O34">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P34">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q34">
-        <v>3805.629166678622</v>
+        <v>3238.406900063359</v>
       </c>
       <c r="R34">
-        <v>34250.6625001076</v>
+        <v>29145.66210057023</v>
       </c>
       <c r="S34">
-        <v>0.140215499056724</v>
+        <v>0.08926324999114889</v>
       </c>
       <c r="T34">
-        <v>0.1619195363028433</v>
+        <v>0.1030820170516023</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H35">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I35">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J35">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N35">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O35">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P35">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q35">
-        <v>4504.493300831654</v>
+        <v>5108.781819475595</v>
       </c>
       <c r="R35">
-        <v>27026.95980498992</v>
+        <v>30652.69091685357</v>
       </c>
       <c r="S35">
-        <v>0.1659646141310746</v>
+        <v>0.1408181500271521</v>
       </c>
       <c r="T35">
-        <v>0.1277695810784917</v>
+        <v>0.1084120579201656</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H36">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I36">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J36">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N36">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O36">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P36">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q36">
-        <v>843.2427971246067</v>
+        <v>3351.116817533763</v>
       </c>
       <c r="R36">
-        <v>7589.18517412146</v>
+        <v>30160.05135780387</v>
       </c>
       <c r="S36">
-        <v>0.0310686366028683</v>
+        <v>0.09236997927197077</v>
       </c>
       <c r="T36">
-        <v>0.03587776862144781</v>
+        <v>0.1066696964239324</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H37">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I37">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J37">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N37">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O37">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P37">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q37">
-        <v>3496.22098941827</v>
+        <v>4051.316005370289</v>
       </c>
       <c r="R37">
-        <v>31465.98890476442</v>
+        <v>36461.8440483326</v>
       </c>
       <c r="S37">
-        <v>0.1288155911606389</v>
+        <v>0.1116702269172646</v>
       </c>
       <c r="T37">
-        <v>0.1487550301473398</v>
+        <v>0.1289577988296773</v>
       </c>
     </row>
   </sheetData>
